--- a/target/classes/com/teamtracker/qa/testdata/Data.xlsx
+++ b/target/classes/com/teamtracker/qa/testdata/Data.xlsx
@@ -3,16 +3,31 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{858C2EA4-94C1-403F-BA7A-E4EF774F421D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6DF2DF66-BFAF-43F7-BCE7-6D5A181CDD29}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="23304" windowHeight="13224" activeTab="1" xr2:uid="{91ADCD72-05EE-485A-B282-AAA4DF7C1BCD}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="12480" windowHeight="13224" firstSheet="11" activeTab="16" xr2:uid="{91ADCD72-05EE-485A-B282-AAA4DF7C1BCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Manager" sheetId="2" r:id="rId1"/>
-    <sheet name="Task" sheetId="3" r:id="rId2"/>
+    <sheet name="Modify Manager" sheetId="14" r:id="rId2"/>
+    <sheet name="Delete Manager" sheetId="15" r:id="rId3"/>
+    <sheet name="Add Organization Unit" sheetId="4" r:id="rId4"/>
+    <sheet name="Modify Organization Unit" sheetId="11" r:id="rId5"/>
+    <sheet name="Delete Organization Unit" sheetId="12" r:id="rId6"/>
+    <sheet name="Add Organization Hierarchy" sheetId="5" r:id="rId7"/>
+    <sheet name="Team member portal" sheetId="6" r:id="rId8"/>
+    <sheet name="Search Team Member" sheetId="7" r:id="rId9"/>
+    <sheet name="Form - Add" sheetId="8" r:id="rId10"/>
+    <sheet name="Form-Modify" sheetId="13" r:id="rId11"/>
+    <sheet name="add poi" sheetId="9" r:id="rId12"/>
+    <sheet name="Modify POI" sheetId="16" r:id="rId13"/>
+    <sheet name="Delete POI" sheetId="17" r:id="rId14"/>
+    <sheet name="Add Task" sheetId="10" r:id="rId15"/>
+    <sheet name="Modify Task" sheetId="18" r:id="rId16"/>
+    <sheet name="Delete Task" sheetId="19" r:id="rId17"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L11"/>
+  <oleSize ref="A1:O7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
   <si>
     <t>username</t>
   </si>
@@ -48,25 +63,169 @@
     <t>pratik8001</t>
   </si>
   <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>TaskID</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>Test85441</t>
-  </si>
-  <si>
-    <t>LocationGuru Solutions Pvt. Ltd., Harihar Nagar, Besa, Nagpur, Maharashtra</t>
+    <t>Organization unit ID</t>
+  </si>
+  <si>
+    <t>Organization Unit Name</t>
+  </si>
+  <si>
+    <t>Organization Address</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>Minimum task per team member</t>
+  </si>
+  <si>
+    <t>S0001</t>
+  </si>
+  <si>
+    <t>State_Org</t>
+  </si>
+  <si>
+    <t>Shri Ayurvedic College &amp; Hospital, Dhanvantari Road Prerna College Of Commerce, Hanuman Nagar, Nagpur, Maharashtra 440009</t>
+  </si>
+  <si>
+    <t>Hierarchy Name</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>Suresh</t>
+  </si>
+  <si>
+    <t>Chavhan</t>
+  </si>
+  <si>
+    <t>Team member name</t>
+  </si>
+  <si>
+    <t>Suresh Chavhan</t>
+  </si>
+  <si>
+    <t>Form Name</t>
+  </si>
+  <si>
+    <t>Test Form</t>
+  </si>
+  <si>
+    <t>POI name</t>
+  </si>
+  <si>
+    <t>POI address</t>
+  </si>
+  <si>
+    <t>Test POI</t>
+  </si>
+  <si>
+    <t>Snehal nagar, sewagram road, wardha</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>task id</t>
+  </si>
+  <si>
+    <t>task address</t>
+  </si>
+  <si>
+    <t>Installation</t>
+  </si>
+  <si>
+    <t>Installation001</t>
+  </si>
+  <si>
+    <t>Snehal nagar wardha</t>
+  </si>
+  <si>
+    <t>S0002</t>
+  </si>
+  <si>
+    <t>Mhasala, Nalwadi, Wardha, Maharashtra 442001</t>
+  </si>
+  <si>
+    <t>LG_Org</t>
+  </si>
+  <si>
+    <t>S0003</t>
+  </si>
+  <si>
+    <t>Lambent_Org</t>
+  </si>
+  <si>
+    <t>46-48 Lambent IT Park Pipla, Harihar Nagar, Besa, Nagpur, Maharashtra 440034</t>
+  </si>
+  <si>
+    <t>Modofied organization unit name</t>
+  </si>
+  <si>
+    <t>Testing organization</t>
+  </si>
+  <si>
+    <t>Testing Form</t>
+  </si>
+  <si>
+    <t>Modified Form Name</t>
+  </si>
+  <si>
+    <t>Organization Form</t>
+  </si>
+  <si>
+    <t>Modified Name</t>
+  </si>
+  <si>
+    <t>Pratik Manager</t>
+  </si>
+  <si>
+    <t>Ramesh Chaudhary</t>
+  </si>
+  <si>
+    <t>pratik90001</t>
+  </si>
+  <si>
+    <t>raja21000</t>
+  </si>
+  <si>
+    <t>ABC  POI</t>
+  </si>
+  <si>
+    <t>XYZ POI</t>
+  </si>
+  <si>
+    <t>Testing  POI</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Modified Description</t>
+  </si>
+  <si>
+    <t>AC installation</t>
+  </si>
+  <si>
+    <t>Software installation</t>
+  </si>
+  <si>
+    <t>Installation003</t>
+  </si>
+  <si>
+    <t>abc0001</t>
   </si>
 </sst>
 </file>
@@ -112,7 +271,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -135,15 +294,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -461,7 +644,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AE0930-513D-461F-9750-E54CCFF2FECA}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -514,58 +699,779 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046EF819-790C-417A-B331-63A6EEC6DBC7}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F06CD7-9100-4F47-AF85-8A7233BA9B7B}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E16477B-82B2-4750-B60E-627D222D778F}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29361734-73C1-459E-AEE4-974219CEC10A}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38FC2EA2-C949-4899-966B-1F4E72D5C14C}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDCDE14-41CC-4BF1-8F5A-F89DD0D8D450}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2">
+        <v>12.451211000000001</v>
+      </c>
+      <c r="E2">
+        <v>14.521214000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D04A37-3A9D-403D-979D-2BAFD5BB6D17}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2">
+        <v>12.451211000000001</v>
+      </c>
+      <c r="F2">
+        <v>14.521214000000001</v>
+      </c>
+      <c r="G2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12826D6-8AAC-4272-963E-B552B7D7AFB6}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2">
+        <v>12.451211000000001</v>
+      </c>
+      <c r="F2">
+        <v>14.521214000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE1E800-1375-4A29-80EC-392F73C0C1A8}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BF6559-1B9E-416D-9342-BA644B06754D}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2">
+        <v>8643132111</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>8965777</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{52BCE8A0-BCDA-48EA-8E87-AEC052DE049D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E575F86-7B8B-49BD-B54A-9484B6BEA764}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>878784574</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>531141</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{3860F2C9-2C0B-4CE9-8E0F-D0E7222A0DA9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12216E4-5FC1-4B28-AA80-EF76D4BACE6D}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5">
+        <v>21.130642000000002</v>
+      </c>
+      <c r="E2" s="4">
+        <v>79.106958000000006</v>
+      </c>
+      <c r="F2" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9103DD6F-78D5-4D9A-B79F-EE1A4755F7E7}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="4">
+        <v>20.741565000000001</v>
+      </c>
+      <c r="E2" s="4">
+        <v>78.624300000000005</v>
+      </c>
+      <c r="F2" s="4">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289360FE-7DAB-45CE-9BD9-ED32833333ED}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="5">
+        <v>21.084282999999999</v>
+      </c>
+      <c r="E2" s="4">
+        <v>79.084502999999998</v>
+      </c>
+      <c r="F2" s="4">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F34F306-68C5-48AD-A969-04D28A3BBD22}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897A6CBB-EDB4-477A-97C1-CAE01024F4EE}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>98464121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693B4141-1CAB-47E9-B9FF-B43710CE2088}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2">
-        <v>21.084333000000001</v>
-      </c>
-      <c r="E2">
-        <v>79.084475999999995</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:5" customFormat="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>